--- a/ЭЛЕКТРОНИКА/labs/lab3/ОТЧЕТ/Report_Electro3.xlsx
+++ b/ЭЛЕКТРОНИКА/labs/lab3/ОТЧЕТ/Report_Electro3.xlsx
@@ -823,11 +823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268285440"/>
-        <c:axId val="268287360"/>
+        <c:axId val="266663040"/>
+        <c:axId val="266664960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268285440"/>
+        <c:axId val="266663040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,13 +880,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="268287360"/>
+        <c:crossAx val="266664960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268287360"/>
+        <c:axId val="266664960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +939,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="268285440"/>
+        <c:crossAx val="266663040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1008,6 +1008,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1585,11 +1586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269086080"/>
-        <c:axId val="269088256"/>
+        <c:axId val="267049984"/>
+        <c:axId val="267052160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269086080"/>
+        <c:axId val="267049984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,13 +1644,13 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="269088256"/>
+        <c:crossAx val="267052160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269088256"/>
+        <c:axId val="267052160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,7 +1703,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="269086080"/>
+        <c:crossAx val="267049984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -1710,6 +1711,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2320,11 +2322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269580160"/>
-        <c:axId val="269590912"/>
+        <c:axId val="267492736"/>
+        <c:axId val="267503104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269580160"/>
+        <c:axId val="267492736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2373,12 +2375,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269590912"/>
+        <c:crossAx val="267503104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269590912"/>
+        <c:axId val="267503104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-5"/>
@@ -2425,7 +2427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269580160"/>
+        <c:crossAx val="267492736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2531,11 +2533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269887360"/>
-        <c:axId val="269888896"/>
+        <c:axId val="267310592"/>
+        <c:axId val="267312128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269887360"/>
+        <c:axId val="267310592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2548,12 +2550,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269888896"/>
+        <c:crossAx val="267312128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269888896"/>
+        <c:axId val="267312128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,7 +2566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269887360"/>
+        <c:crossAx val="267310592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3011,7 +3013,7 @@
   <dimension ref="B2:S26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -4845,8 +4847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -5020,6 +5022,12 @@
       <c r="G11" s="13">
         <v>1</v>
       </c>
+      <c r="W11">
+        <v>10000</v>
+      </c>
+      <c r="X11">
+        <v>20000</v>
+      </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C12">
@@ -5042,6 +5050,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="W12">
+        <f>W11/(1+W11*0.14)</f>
+        <v>7.1377587437544596</v>
+      </c>
+      <c r="X12">
+        <f>X11/(1+X11*0.14)</f>
+        <v>7.1403070332024265</v>
+      </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="G13" s="13"/>
@@ -5087,8 +5103,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U16">
+        <f>186209/25000</f>
+        <v>7.4483600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
@@ -5111,8 +5131,12 @@
       <c r="G17" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <f>LOG10(U16)</f>
+        <v>0.87206065914341313</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C18">
         <f>20*LOG10(C17)</f>
         <v>19.275756546911104</v>
@@ -5134,13 +5158,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -5161,7 +5185,7 @@
         <v>190546.07179632492</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
@@ -5179,7 +5203,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>2</v>
       </c>
@@ -5203,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C24">
         <f>20*LOG10(C23)</f>
         <v>22.144199392957368</v>
@@ -5240,7 +5264,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="13"/>
       <c r="J25" s="7" t="s">
         <v>2</v>
@@ -5258,7 +5282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="13"/>
       <c r="J26" t="s">
         <v>4</v>
@@ -5280,7 +5304,7 @@
         <v>6.0205999132796242</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -5301,7 +5325,7 @@
         <v>194984.45997580473</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
@@ -5318,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
         <v>2</v>
       </c>
@@ -5342,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C30">
         <f>20*LOG10(C29)</f>
         <v>24.910253356283</v>
